--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4230.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4230.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4230</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sohaib Maqsood</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Does Not Bowl | Unknown</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3575</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3577</t>
+          <t>3577</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -608,7 +673,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3582</t>
+          <t>3582</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -660,7 +725,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3584</t>
+          <t>3584</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -712,7 +777,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3585</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +829,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3589</t>
+          <t>3589</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -816,7 +881,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3590</t>
+          <t>3590</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -868,7 +933,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3591</t>
+          <t>3591</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -920,7 +985,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3592</t>
+          <t>3592</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -972,7 +1037,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3594</t>
+          <t>3594</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1024,7 +1089,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3618</t>
+          <t>3618</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1076,7 +1141,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3620</t>
+          <t>3620</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1128,7 +1193,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1180,7 +1245,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1232,7 +1297,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3658</t>
+          <t>3658</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1284,7 +1349,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3662</t>
+          <t>3662</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1336,7 +1401,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3666</t>
+          <t>3666</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1388,7 +1453,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3681</t>
+          <t>3681</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1440,7 +1505,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1492,7 +1557,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1544,7 +1609,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3770</t>
+          <t>3770</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1596,7 +1661,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3772</t>
+          <t>3772</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1648,7 +1713,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3776</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1688,7 +1753,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>15/03/2015</t>
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3789</t>
+          <t>3789</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3792</t>
+          <t>3792</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3879</t>
+          <t>3879</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4472</t>
+          <t>4472</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4473</t>
+          <t>4473</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4476</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1995,7 +2059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2017,7 +2081,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -2054,7 +2118,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3585</t>
+          <t>3585</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2091,7 +2155,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3627</t>
+          <t>3627</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2128,7 +2192,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3757</t>
+          <t>3757</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2165,7 +2229,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3772</t>
+          <t>3772</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2191,6 +2255,557 @@
       <c r="G5" t="inlineStr">
         <is>
           <t>1/16</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3594</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3618</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5.99%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3620</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3627</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3658</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>32.13%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3662</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.86%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3666</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6.86%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3681</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14.78%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3757</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>31.25%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3770</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8.94%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3772</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3776</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3.60%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3789</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3879</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4472</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>13.48%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4473</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>6</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>9.74%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4476</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4230.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4230.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/PAK/PlayerPerformance_4230.xlsx
+++ b/bin/sheets/main_db/teams/PAK/PlayerPerformance_4230.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1753,6 +1752,7 @@
           <t>24</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>15/03/2015</t>
@@ -2261,555 +2261,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3594</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3618</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.99%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3620</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3624</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3627</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.61%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3658</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>32.13%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3662</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>3.86%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3666</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>6.86%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3681</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14.78%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3751</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3757</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>6</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>31.25%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3770</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>7</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>8.94%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3772</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3776</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.60%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>3789</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>6</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>3792</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>3879</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4472</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>13.48%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4473</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.74%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4476</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2.42%</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>